--- a/src/lithium/data/Pour Yann 6 mars 2019.xlsx
+++ b/src/lithium/data/Pour Yann 6 mars 2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="10200" yWindow="20" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>DOSE REPONSE LI EXT</t>
   </si>
@@ -185,8 +185,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -231,6 +233,7 @@
     <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -241,6 +244,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,11 +435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127458120"/>
-        <c:axId val="2129610792"/>
+        <c:axId val="-2145152456"/>
+        <c:axId val="-2145150072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127458120"/>
+        <c:axId val="-2145152456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,12 +459,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129610792"/>
+        <c:crossAx val="-2145150072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129610792"/>
+        <c:axId val="-2145150072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +491,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127458120"/>
+        <c:crossAx val="-2145152456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -615,11 +619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129510456"/>
-        <c:axId val="2129308344"/>
+        <c:axId val="-2145228776"/>
+        <c:axId val="-2145225784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129510456"/>
+        <c:axId val="-2145228776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,12 +643,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129308344"/>
+        <c:crossAx val="-2145225784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129308344"/>
+        <c:axId val="-2145225784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +675,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129510456"/>
+        <c:crossAx val="-2145228776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -804,11 +808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129234696"/>
-        <c:axId val="2129237656"/>
+        <c:axId val="2078509560"/>
+        <c:axId val="2078429912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129234696"/>
+        <c:axId val="2078509560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,12 +822,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129237656"/>
+        <c:crossAx val="2078429912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129237656"/>
+        <c:axId val="2078429912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129234696"/>
+        <c:crossAx val="2078509560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -969,11 +973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129265976"/>
-        <c:axId val="2129268936"/>
+        <c:axId val="2078731128"/>
+        <c:axId val="2078469720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129265976"/>
+        <c:axId val="2078731128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500.0"/>
@@ -984,12 +988,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129268936"/>
+        <c:crossAx val="2078469720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129268936"/>
+        <c:axId val="2078469720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25.0"/>
@@ -1001,7 +1005,165 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129265976"/>
+        <c:crossAx val="2078731128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0.0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$25:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$25:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3761770895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.66417409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.841676515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.759238645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.28511065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.24893656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.229211755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2078823528"/>
+        <c:axId val="-2071324104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2078823528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2071324104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2071324104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2078823528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1091,8 +1253,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -1124,13 +1286,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1144,6 +1306,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1602,10 +1794,15 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -1806,7 +2003,9 @@
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1987,15 +2186,20 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>0.22</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <f>A39/B39</f>
         <v>31.428571428571427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40">
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/src/lithium/data/Pour Yann 6 mars 2019.xlsx
+++ b/src/lithium/data/Pour Yann 6 mars 2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="20" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="4240" yWindow="400" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -435,11 +435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145152456"/>
-        <c:axId val="-2145150072"/>
+        <c:axId val="-2145378072"/>
+        <c:axId val="-2140604808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145152456"/>
+        <c:axId val="-2145378072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,12 +459,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145150072"/>
+        <c:crossAx val="-2140604808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145150072"/>
+        <c:axId val="-2140604808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +491,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145152456"/>
+        <c:crossAx val="-2145378072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -619,11 +619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145228776"/>
-        <c:axId val="-2145225784"/>
+        <c:axId val="-2144755096"/>
+        <c:axId val="-2140712280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145228776"/>
+        <c:axId val="-2144755096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,12 +643,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145225784"/>
+        <c:crossAx val="-2140712280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145225784"/>
+        <c:axId val="-2140712280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +675,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145228776"/>
+        <c:crossAx val="-2144755096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -808,11 +808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2078509560"/>
-        <c:axId val="2078429912"/>
+        <c:axId val="-2140812088"/>
+        <c:axId val="-2140732360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2078509560"/>
+        <c:axId val="-2140812088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,12 +822,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078429912"/>
+        <c:crossAx val="-2140732360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078429912"/>
+        <c:axId val="-2140732360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078509560"/>
+        <c:crossAx val="-2140812088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -973,11 +973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2078731128"/>
-        <c:axId val="2078469720"/>
+        <c:axId val="2123323432"/>
+        <c:axId val="-2140680296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2078731128"/>
+        <c:axId val="2123323432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500.0"/>
@@ -988,12 +988,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078469720"/>
+        <c:crossAx val="-2140680296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078469720"/>
+        <c:axId val="-2140680296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25.0"/>
@@ -1005,7 +1005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078731128"/>
+        <c:crossAx val="2123323432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1133,11 +1133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2078823528"/>
-        <c:axId val="-2071324104"/>
+        <c:axId val="-2140591240"/>
+        <c:axId val="-2140827208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2078823528"/>
+        <c:axId val="-2140591240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,12 +1147,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071324104"/>
+        <c:crossAx val="-2140827208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2071324104"/>
+        <c:axId val="-2140827208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078823528"/>
+        <c:crossAx val="-2140591240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
